--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y2/L3_24,42_22_AVY2.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y2/L3_24,42_22_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 22 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{B6659091-489E-43F8-8AE3-DA476BD5878B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B093D209-C596-4A19-BE1A-6A050EFA8BED}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -464,11 +458,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,9 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -763,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -876,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1070,79 +1070,79 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="18" sqref="B77 B76 B69 B68 B61 B61 B60 B53 B52 B45 B38 B37 B31 B30 B24 B23 B18 B17 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="52.85546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" customWidth="1"/>
+    <col min="6" max="7" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="52.81640625" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="50" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="32"/>
       <c r="H2" s="12"/>
       <c r="I2" s="21"/>
@@ -1157,7 +1157,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="16" t="s">
         <v>71</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="23"/>
       <c r="G4" s="33"/>
       <c r="H4" s="23">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="29.5" thickBot="1">
       <c r="A5" s="23"/>
       <c r="G5" s="26"/>
       <c r="H5" s="23">
@@ -1270,7 +1270,7 @@
       <c r="R5" s="24"/>
       <c r="S5" s="26"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="R7" s="24"/>
       <c r="S7" s="26"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="R8" s="24"/>
       <c r="S8" s="26"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1420,11 +1420,13 @@
       <c r="R9" s="24"/>
       <c r="S9" s="26"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="61">
+        <v>3</v>
+      </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -1453,7 +1455,7 @@
       <c r="R10" s="24"/>
       <c r="S10" s="26"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="23"/>
       <c r="G11" s="26"/>
       <c r="H11" s="23">
@@ -1477,7 +1479,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="26"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="23"/>
       <c r="G12" s="26"/>
       <c r="H12" s="23">
@@ -1501,7 +1503,7 @@
       <c r="R12" s="24"/>
       <c r="S12" s="26"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1585,7 +1587,7 @@
       <c r="R14" s="24"/>
       <c r="S14" s="26"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1618,7 +1620,7 @@
       <c r="R15" s="24"/>
       <c r="S15" s="26"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -1651,18 +1653,20 @@
       <c r="R16" s="24"/>
       <c r="S16" s="26"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="60">
+        <v>3</v>
+      </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1684,11 +1688,13 @@
       <c r="R17" s="24"/>
       <c r="S17" s="26"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="59">
+        <v>3</v>
+      </c>
       <c r="C18" s="7">
         <v>4</v>
       </c>
@@ -1717,7 +1723,7 @@
       <c r="R18" s="24"/>
       <c r="S18" s="26"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="43.5">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="23">
         <v>5</v>
       </c>
@@ -1801,7 +1807,7 @@
       <c r="R20" s="24"/>
       <c r="S20" s="26"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="23">
         <v>6</v>
       </c>
@@ -1834,7 +1840,7 @@
       <c r="R21" s="24"/>
       <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="23">
         <v>7</v>
       </c>
@@ -1867,18 +1873,20 @@
       <c r="R22" s="24"/>
       <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29">
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="60">
+        <v>3</v>
+      </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1900,11 +1908,13 @@
       <c r="R23" s="24"/>
       <c r="S23" s="26"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="59">
+        <v>3</v>
+      </c>
       <c r="C24" s="7">
         <v>4</v>
       </c>
@@ -1933,7 +1943,7 @@
       <c r="R24" s="24"/>
       <c r="S24" s="26"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="23">
@@ -1957,7 +1967,7 @@
       <c r="R25" s="24"/>
       <c r="S25" s="26"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="43.5">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2010,7 +2020,7 @@
       </c>
       <c r="S26" s="26"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="23">
         <v>5</v>
       </c>
@@ -2043,7 +2053,7 @@
       <c r="R27" s="24"/>
       <c r="S27" s="26"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="23">
         <v>6</v>
       </c>
@@ -2076,7 +2086,7 @@
       <c r="R28" s="24"/>
       <c r="S28" s="26"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="23">
         <v>7</v>
       </c>
@@ -2109,18 +2119,20 @@
       <c r="R29" s="24"/>
       <c r="S29" s="26"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="60">
+        <v>3</v>
+      </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="46" t="s">
         <v>84</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2142,11 +2154,13 @@
       <c r="R30" s="24"/>
       <c r="S30" s="26"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="5">
         <v>2</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="59">
+        <v>3</v>
+      </c>
       <c r="C31" s="7">
         <v>4</v>
       </c>
@@ -2175,7 +2189,7 @@
       <c r="R31" s="24"/>
       <c r="S31" s="26"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="23">
@@ -2199,7 +2213,7 @@
       <c r="R32" s="24"/>
       <c r="S32" s="26"/>
     </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2250,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="23">
         <v>5</v>
       </c>
@@ -2283,7 +2297,7 @@
       <c r="R34" s="24"/>
       <c r="S34" s="26"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="23">
         <v>6</v>
       </c>
@@ -2316,7 +2330,7 @@
       <c r="R35" s="24"/>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="23">
         <v>7</v>
       </c>
@@ -2349,18 +2363,20 @@
       <c r="R36" s="24"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="60">
+        <v>3</v>
+      </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="46" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2382,11 +2398,13 @@
       <c r="R37" s="24"/>
       <c r="S37" s="26"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="59">
+        <v>3</v>
+      </c>
       <c r="C38" s="7">
         <v>4</v>
       </c>
@@ -2415,7 +2433,7 @@
       <c r="R38" s="24"/>
       <c r="S38" s="26"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" thickBot="1">
       <c r="A39" s="23"/>
       <c r="G39" s="4"/>
       <c r="H39" s="23">
@@ -2439,7 +2457,7 @@
       <c r="R39" s="24"/>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="29">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2490,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="23">
         <v>5</v>
       </c>
@@ -2523,7 +2541,7 @@
       <c r="R41" s="24"/>
       <c r="S41" s="26"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="23">
         <v>6</v>
       </c>
@@ -2556,7 +2574,7 @@
       <c r="R42" s="24"/>
       <c r="S42" s="26"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="23">
         <v>7</v>
       </c>
@@ -2589,7 +2607,7 @@
       <c r="R43" s="24"/>
       <c r="S43" s="26"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="A44" s="23">
         <v>8</v>
       </c>
@@ -2602,7 +2620,7 @@
       <c r="D44" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="47" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="43" t="s">
@@ -2622,11 +2640,13 @@
       <c r="R44" s="24"/>
       <c r="S44" s="26"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" thickBot="1">
       <c r="A45" s="9">
         <v>1</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="61">
+        <v>3</v>
+      </c>
       <c r="C45" s="11">
         <v>1</v>
       </c>
@@ -2655,7 +2675,7 @@
       <c r="R45" s="24"/>
       <c r="S45" s="26"/>
     </row>
-    <row r="46" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="44" thickBot="1">
       <c r="A46" s="23"/>
       <c r="G46" s="34"/>
       <c r="H46" s="23">
@@ -2679,7 +2699,7 @@
       <c r="R46" s="24"/>
       <c r="S46" s="26"/>
     </row>
-    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="43.5">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -2730,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="23">
         <v>5</v>
       </c>
@@ -2763,7 +2783,7 @@
       <c r="R48" s="24"/>
       <c r="S48" s="26"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="23">
         <v>6</v>
       </c>
@@ -2796,7 +2816,7 @@
       <c r="R49" s="24"/>
       <c r="S49" s="26"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="23">
         <v>7</v>
       </c>
@@ -2829,7 +2849,7 @@
       <c r="R50" s="24"/>
       <c r="S50" s="26"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" thickBot="1">
       <c r="A51" s="23">
         <v>8</v>
       </c>
@@ -2842,7 +2862,7 @@
       <c r="D51" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="47" t="s">
         <v>87</v>
       </c>
       <c r="F51" s="43" t="s">
@@ -2862,18 +2882,20 @@
       <c r="R51" s="24"/>
       <c r="S51" s="26"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="60">
+        <v>3</v>
+      </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="46" t="s">
         <v>89</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2895,11 +2917,13 @@
       <c r="R52" s="24"/>
       <c r="S52" s="26"/>
     </row>
-    <row r="53" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="29.5" thickBot="1">
       <c r="A53" s="5">
         <v>2</v>
       </c>
-      <c r="B53" s="45"/>
+      <c r="B53" s="59">
+        <v>3</v>
+      </c>
       <c r="C53" s="7">
         <v>3</v>
       </c>
@@ -2928,7 +2952,7 @@
       <c r="R53" s="24"/>
       <c r="S53" s="26"/>
     </row>
-    <row r="54" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="44" thickBot="1">
       <c r="A54" s="23"/>
       <c r="G54" s="26"/>
       <c r="H54" s="23">
@@ -2952,7 +2976,7 @@
       <c r="R54" s="24"/>
       <c r="S54" s="26"/>
     </row>
-    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="43.5">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="23">
         <v>5</v>
       </c>
@@ -3036,7 +3060,7 @@
       <c r="R56" s="24"/>
       <c r="S56" s="26"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="23">
         <v>6</v>
       </c>
@@ -3069,7 +3093,7 @@
       <c r="R57" s="24"/>
       <c r="S57" s="26"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="23">
         <v>7</v>
       </c>
@@ -3102,7 +3126,7 @@
       <c r="R58" s="24"/>
       <c r="S58" s="26"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" thickBot="1">
       <c r="A59" s="23">
         <v>8</v>
       </c>
@@ -3115,7 +3139,7 @@
       <c r="D59" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="47" t="s">
         <v>87</v>
       </c>
       <c r="F59" s="43" t="s">
@@ -3135,18 +3159,20 @@
       <c r="R59" s="24"/>
       <c r="S59" s="26"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>1</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="60">
+        <v>3</v>
+      </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="46" t="s">
         <v>89</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -3168,11 +3194,13 @@
       <c r="R60" s="24"/>
       <c r="S60" s="26"/>
     </row>
-    <row r="61" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="29.5" thickBot="1">
       <c r="A61" s="5">
         <v>2</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="59">
+        <v>3</v>
+      </c>
       <c r="C61" s="7">
         <v>3</v>
       </c>
@@ -3201,7 +3229,7 @@
       <c r="R61" s="24"/>
       <c r="S61" s="26"/>
     </row>
-    <row r="62" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="44" thickBot="1">
       <c r="A62" s="23"/>
       <c r="G62" s="26"/>
       <c r="H62" s="23">
@@ -3225,7 +3253,7 @@
       <c r="R62" s="24"/>
       <c r="S62" s="26"/>
     </row>
-    <row r="63" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="58">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -3278,7 +3306,7 @@
       </c>
       <c r="S63" s="26"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="23">
         <v>5</v>
       </c>
@@ -3311,7 +3339,7 @@
       <c r="R64" s="24"/>
       <c r="S64" s="26"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="23">
         <v>6</v>
       </c>
@@ -3344,7 +3372,7 @@
       <c r="R65" s="24"/>
       <c r="S65" s="26"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="23">
         <v>7</v>
       </c>
@@ -3377,7 +3405,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="26"/>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" thickBot="1">
       <c r="A67" s="23">
         <v>8</v>
       </c>
@@ -3390,7 +3418,7 @@
       <c r="D67" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="47" t="s">
         <v>87</v>
       </c>
       <c r="F67" s="43" t="s">
@@ -3410,18 +3438,20 @@
       <c r="R67" s="24"/>
       <c r="S67" s="26"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>1</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="60">
+        <v>3</v>
+      </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="46" t="s">
         <v>89</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3440,11 +3470,13 @@
       <c r="R68" s="24"/>
       <c r="S68" s="26"/>
     </row>
-    <row r="69" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="29.5" thickBot="1">
       <c r="A69" s="5">
         <v>2</v>
       </c>
-      <c r="B69" s="45"/>
+      <c r="B69" s="59">
+        <v>3</v>
+      </c>
       <c r="C69" s="7">
         <v>3</v>
       </c>
@@ -3470,7 +3502,7 @@
       <c r="R69" s="24"/>
       <c r="S69" s="26"/>
     </row>
-    <row r="70" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="44" thickBot="1">
       <c r="A70" s="23"/>
       <c r="G70" s="26"/>
       <c r="H70" s="23">
@@ -3491,7 +3523,7 @@
       <c r="R70" s="24"/>
       <c r="S70" s="26"/>
     </row>
-    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -3537,7 +3569,7 @@
       </c>
       <c r="S71" s="26"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="23">
         <v>5</v>
       </c>
@@ -3567,7 +3599,7 @@
       <c r="R72" s="24"/>
       <c r="S72" s="26"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="23">
         <v>6</v>
       </c>
@@ -3597,7 +3629,7 @@
       <c r="R73" s="24"/>
       <c r="S73" s="26"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="23">
         <v>7</v>
       </c>
@@ -3627,7 +3659,7 @@
       <c r="R74" s="24"/>
       <c r="S74" s="26"/>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" thickBot="1">
       <c r="A75" s="23">
         <v>8</v>
       </c>
@@ -3640,7 +3672,7 @@
       <c r="D75" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="47" t="s">
         <v>87</v>
       </c>
       <c r="F75" s="43" t="s">
@@ -3657,18 +3689,20 @@
       <c r="R75" s="24"/>
       <c r="S75" s="26"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>1</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="60">
+        <v>3</v>
+      </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="46" t="s">
         <v>89</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -3687,11 +3721,13 @@
       <c r="R76" s="24"/>
       <c r="S76" s="26"/>
     </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="5">
         <v>2</v>
       </c>
-      <c r="B77" s="45"/>
+      <c r="B77" s="59">
+        <v>3</v>
+      </c>
       <c r="C77" s="7">
         <v>3</v>
       </c>
@@ -3717,7 +3753,7 @@
       <c r="R77" s="24"/>
       <c r="S77" s="26"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3743,7 +3779,7 @@
       <c r="R78" s="24"/>
       <c r="S78" s="26"/>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="29">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3769,7 +3805,7 @@
       <c r="R79" s="24"/>
       <c r="S79" s="26"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="29">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -3795,7 +3831,7 @@
       <c r="R80" s="24"/>
       <c r="S80" s="26"/>
     </row>
-    <row r="81" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="29.5" thickBot="1">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -3821,7 +3857,7 @@
       <c r="R81" s="24"/>
       <c r="S81" s="26"/>
     </row>
-    <row r="82" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="29.5" thickBot="1">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -3869,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" thickBot="1">
       <c r="A83" s="9">
         <v>4</v>
       </c>
@@ -3901,7 +3937,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="26"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15" thickBot="1">
       <c r="A84" s="5">
         <v>5</v>
       </c>
@@ -3931,7 +3967,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="26"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="23"/>
       <c r="G85" s="26"/>
       <c r="H85" s="23">
@@ -3952,7 +3988,7 @@
       <c r="R85" s="24"/>
       <c r="S85" s="26"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="23"/>
       <c r="G86" s="26"/>
       <c r="H86" s="23">
@@ -3973,7 +4009,7 @@
       <c r="R86" s="24"/>
       <c r="S86" s="26"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="23"/>
       <c r="G87" s="26"/>
       <c r="H87" s="23">
@@ -3994,7 +4030,7 @@
       <c r="R87" s="24"/>
       <c r="S87" s="26"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="23"/>
       <c r="G88" s="26"/>
       <c r="H88" s="23">
@@ -4015,7 +4051,7 @@
       <c r="R88" s="24"/>
       <c r="S88" s="26"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="23"/>
       <c r="G89" s="26"/>
       <c r="H89" s="23">
@@ -4036,7 +4072,7 @@
       <c r="R89" s="24"/>
       <c r="S89" s="26"/>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29">
       <c r="A90" s="23"/>
       <c r="G90" s="26"/>
       <c r="H90" s="23">
@@ -4057,7 +4093,7 @@
       <c r="R90" s="24"/>
       <c r="S90" s="26"/>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29">
       <c r="A91" s="23"/>
       <c r="G91" s="26"/>
       <c r="H91" s="23">
@@ -4078,7 +4114,7 @@
       <c r="R91" s="24"/>
       <c r="S91" s="26"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="29">
       <c r="A92" s="23"/>
       <c r="G92" s="26"/>
       <c r="H92" s="23">
@@ -4099,7 +4135,7 @@
       <c r="R92" s="24"/>
       <c r="S92" s="26"/>
     </row>
-    <row r="93" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="43.5">
       <c r="A93" s="23"/>
       <c r="G93" s="34"/>
       <c r="H93" s="23">
@@ -4120,7 +4156,7 @@
       <c r="R93" s="24"/>
       <c r="S93" s="26"/>
     </row>
-    <row r="94" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="43.5">
       <c r="A94" s="23"/>
       <c r="G94" s="41"/>
       <c r="H94" s="23">
@@ -4141,7 +4177,7 @@
       <c r="R94" s="24"/>
       <c r="S94" s="26"/>
     </row>
-    <row r="95" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="44" thickBot="1">
       <c r="A95" s="23"/>
       <c r="G95" s="34"/>
       <c r="H95" s="23">
@@ -4164,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="44" thickBot="1">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -4212,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="15" thickBot="1">
       <c r="A97" s="9">
         <v>4</v>
       </c>
@@ -4225,7 +4261,7 @@
       <c r="D97" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="48" t="s">
         <v>107</v>
       </c>
       <c r="F97" s="38" t="s">
@@ -4244,7 +4280,7 @@
       <c r="R97" s="24"/>
       <c r="S97" s="26"/>
     </row>
-    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="15" thickBot="1">
       <c r="A98" s="5">
         <v>5</v>
       </c>
@@ -4274,7 +4310,7 @@
       <c r="R98" s="24"/>
       <c r="S98" s="26"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -4300,7 +4336,7 @@
       <c r="R99" s="24"/>
       <c r="S99" s="26"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="23"/>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -4326,7 +4362,7 @@
       <c r="R100" s="24"/>
       <c r="S100" s="26"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="23"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -4352,7 +4388,7 @@
       <c r="R101" s="24"/>
       <c r="S101" s="26"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -4378,7 +4414,7 @@
       <c r="R102" s="24"/>
       <c r="S102" s="26"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
@@ -4404,7 +4440,7 @@
       <c r="R103" s="24"/>
       <c r="S103" s="26"/>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="43.5">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -4430,7 +4466,7 @@
       <c r="R104" s="24"/>
       <c r="S104" s="26"/>
     </row>
-    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="43.5">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -4456,7 +4492,7 @@
       <c r="R105" s="24"/>
       <c r="S105" s="26"/>
     </row>
-    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="43.5">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -4482,7 +4518,7 @@
       <c r="R106" s="24"/>
       <c r="S106" s="26"/>
     </row>
-    <row r="107" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="44" thickBot="1">
       <c r="A107" s="5"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
